--- a/Bitacoras/Parcial_04/Bitacora_Fisica_4_04_Cuarto_Parcial_Evaluacion_Continua.xlsx
+++ b/Bitacoras/Parcial_04/Bitacora_Fisica_4_04_Cuarto_Parcial_Evaluacion_Continua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_4\Bitacoras\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD859537-82B1-4DF9-81D1-41A1AB976C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B860D50-8199-4F11-9405-120BB9BCFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" xr2:uid="{61D2EF35-883F-4D77-A7A9-6504476B0EC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{61D2EF35-883F-4D77-A7A9-6504476B0EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentrado" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="6360" ySplit="1080" topLeftCell="H1" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -2201,10 +2201,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05A6A6F-E719-4697-ABFE-EAD28B63CBD3}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5265" ySplit="600" topLeftCell="V2" activePane="bottomRight"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1:V1048576"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,9 +2217,10 @@
     <col min="3" max="8" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="20" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2279,8 +2284,11 @@
       <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="2">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80178045</v>
       </c>
@@ -2300,8 +2308,11 @@
         <f>SUM(C2:T2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20197413</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20270657</v>
       </c>
@@ -2333,8 +2344,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80204265</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20228454</v>
       </c>
@@ -2378,8 +2392,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20194829</v>
       </c>
@@ -2397,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20195555</v>
       </c>
@@ -2411,8 +2428,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20198334</v>
       </c>
@@ -2436,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10188042</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80209587</v>
       </c>
@@ -2480,8 +2500,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10185845</v>
       </c>
@@ -2510,8 +2533,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20184819</v>
       </c>
@@ -2527,6 +2553,9 @@
       <c r="U13" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
